--- a/app/tables/adapt_r_survey/forms/adapt_r_survey/adapt_r_survey.xlsx
+++ b/app/tables/adapt_r_survey/forms/adapt_r_survey/adapt_r_survey.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="258">
   <si>
     <t>branch_label</t>
   </si>
@@ -100,24 +100,15 @@
     <t>visit_date</t>
   </si>
   <si>
-    <t xml:space="preserve">Date of visit: </t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
-    <t>Interviewer identifier:</t>
-  </si>
-  <si>
     <t>interviewer_id</t>
   </si>
   <si>
     <t>patient_id</t>
   </si>
   <si>
-    <t>Patient identifier:</t>
-  </si>
-  <si>
     <t>title_2</t>
   </si>
   <si>
@@ -163,9 +154,6 @@
     <t>MDH</t>
   </si>
   <si>
-    <t>Date of birth:</t>
-  </si>
-  <si>
     <t>birth_date</t>
   </si>
   <si>
@@ -184,18 +172,12 @@
     <t>sex</t>
   </si>
   <si>
-    <t>Gender:</t>
-  </si>
-  <si>
     <t>occupation_list</t>
   </si>
   <si>
     <t>occupation</t>
   </si>
   <si>
-    <t>Primary occupation:</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -271,9 +253,6 @@
     <t>journey_start</t>
   </si>
   <si>
-    <t>When you set out to come to this clinic visit, from where did you start your journey?</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
@@ -301,12 +280,6 @@
     <t>sub_country</t>
   </si>
   <si>
-    <t>Which sub-country and constituency is that?</t>
-  </si>
-  <si>
-    <t>How far did you travel to get to your clinic visit?</t>
-  </si>
-  <si>
     <t>decimal</t>
   </si>
   <si>
@@ -316,12 +289,6 @@
     <t>datetime</t>
   </si>
   <si>
-    <t>What date and time did you leave for the clinic?</t>
-  </si>
-  <si>
-    <t>What time did you arrive at the clinic?</t>
-  </si>
-  <si>
     <t>leave_time</t>
   </si>
   <si>
@@ -331,12 +298,6 @@
     <t>seen_time</t>
   </si>
   <si>
-    <t>When were you first seen by a doctor or nurse?</t>
-  </si>
-  <si>
-    <t>Which of the following modes of transport did you use to get to clinic for today's visit?</t>
-  </si>
-  <si>
     <t>Walking</t>
   </si>
   <si>
@@ -397,24 +358,15 @@
     <t>medical_cost</t>
   </si>
   <si>
-    <t>For this clinic visit, how many shillings did you spend on medical costs?</t>
-  </si>
-  <si>
     <t>e.g. HIV testing, medication, lab tests, maternal/child health</t>
   </si>
   <si>
     <t>hours_away</t>
   </si>
   <si>
-    <t>How many hours were you away from home in order to seek and receive care?</t>
-  </si>
-  <si>
     <t>earning</t>
   </si>
   <si>
-    <t>How much money would you have earned today had you not had to spend the time to clinic?</t>
-  </si>
-  <si>
     <t>Overall time, including the estimated time need to travel back home</t>
   </si>
   <si>
@@ -496,9 +448,6 @@
     <t>selected(data('walking_select'), 'walking')</t>
   </si>
   <si>
-    <t>time_walking</t>
-  </si>
-  <si>
     <t>cost_walking</t>
   </si>
   <si>
@@ -691,18 +640,12 @@
     <t xml:space="preserve"> Time (how long it took one way)</t>
   </si>
   <si>
-    <t>Clinic:</t>
-  </si>
-  <si>
     <t>&lt;strong&gt;Demographics&lt;/strong&gt;</t>
   </si>
   <si>
     <t>&lt;strong&gt;Details of travel to today's visit&lt;/strong&gt;</t>
   </si>
   <si>
-    <t>&lt;strong&gt;Ancillary costs&lt;/strong&gt;</t>
-  </si>
-  <si>
     <t>Record "0" if the patient doesn't have a paid job (in KSH)</t>
   </si>
   <si>
@@ -718,9 +661,6 @@
     <t>calculates.expand_other_occupation()</t>
   </si>
   <si>
-    <t xml:space="preserve">Specify: </t>
-  </si>
-  <si>
     <t>expand_other_occupation</t>
   </si>
   <si>
@@ -740,6 +680,117 @@
   </si>
   <si>
     <t>expand_other_journey_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Date of visit: </t>
+  </si>
+  <si>
+    <t>2.  Interviewer identifier:</t>
+  </si>
+  <si>
+    <t>3.  Patient identifier:</t>
+  </si>
+  <si>
+    <t>1.  Clinic:</t>
+  </si>
+  <si>
+    <t>2.  Date of birth:</t>
+  </si>
+  <si>
+    <t>3.  Gender:</t>
+  </si>
+  <si>
+    <t>4.  Primary occupation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4b.  Specify: </t>
+  </si>
+  <si>
+    <t>1.  When you set out to come to this clinic visit, from where did you start your journey?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Specify: </t>
+  </si>
+  <si>
+    <t>2.  Which sub-county and constituency is that?</t>
+  </si>
+  <si>
+    <t>3.  How far did you travel to get to your clinic visit?  (in kilometers)</t>
+  </si>
+  <si>
+    <t>4.  What date and time did you leave for the clinic?</t>
+  </si>
+  <si>
+    <t>5.  What date and time did you arrive at the clinic?</t>
+  </si>
+  <si>
+    <t>6.  When were you first seen by a doctor or nurse?</t>
+  </si>
+  <si>
+    <t>7.  Which of the following modes of transport did you use to get to clinic for today's visit?</t>
+  </si>
+  <si>
+    <t>8.  Ancillary costs</t>
+  </si>
+  <si>
+    <t>b.  How many hours were you away from home in order to seek and receive care?</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>other_transport_list</t>
+  </si>
+  <si>
+    <t>other_transport</t>
+  </si>
+  <si>
+    <t>other_transport_select</t>
+  </si>
+  <si>
+    <t>time_other</t>
+  </si>
+  <si>
+    <t>cost_other</t>
+  </si>
+  <si>
+    <t>calculates.expand_other_transport()</t>
+  </si>
+  <si>
+    <t>expand_other_transport</t>
+  </si>
+  <si>
+    <t>selected(data('other_transport_select'), 'other_transport')</t>
+  </si>
+  <si>
+    <t>other_tranport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify:  </t>
+  </si>
+  <si>
+    <t>a.  For this clinic visit, how many shillings did you spend on medical costs?  (in KSH)</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Administrative&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>c.  How much money would you have earned today had you not had to spend the time to clinic?  (in KSH)</t>
+  </si>
+  <si>
+    <t>walking_note</t>
+  </si>
+  <si>
+    <t>walking_hour</t>
+  </si>
+  <si>
+    <t>walking_min</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>minutes</t>
   </si>
 </sst>
 </file>
@@ -1131,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W90"/>
+  <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,6 +1206,10 @@
     <col min="14" max="14" width="12.5703125" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" customWidth="1"/>
     <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" customWidth="1"/>
+    <col min="19" max="19" width="22.7109375" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" customWidth="1"/>
     <col min="22" max="22" width="13.85546875" customWidth="1"/>
     <col min="23" max="23" width="14.140625" customWidth="1"/>
   </cols>
@@ -1230,7 +1285,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -1241,7 +1296,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>24</v>
+        <v>251</v>
       </c>
       <c r="W3" s="13" t="s">
         <v>24</v>
@@ -1255,40 +1310,40 @@
         <v>26</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
       <c r="J5" s="13" t="s">
-        <v>29</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E6" s="14"/>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>32</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -1296,24 +1351,24 @@
         <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="W9" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>224</v>
@@ -1321,7 +1376,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -1329,77 +1384,77 @@
         <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>48</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
         <v>50</v>
       </c>
-      <c r="I13" t="s">
-        <v>54</v>
-      </c>
       <c r="J13" s="13" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="3:23" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I17" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="3:23" ht="45" x14ac:dyDescent="0.25">
@@ -1407,655 +1462,776 @@
         <v>22</v>
       </c>
       <c r="I21" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" ht="60" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" ht="45" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>84</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="3:23" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="3:23" ht="30" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I27" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" ht="30" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" ht="45" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="I28" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>95</v>
+        <v>232</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="3:23" ht="30" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>99</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="3:23" ht="30" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="3:23" ht="30" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>98</v>
+        <v>239</v>
       </c>
       <c r="I31" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>104</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10" ht="45" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="3:17" ht="45" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
         <v>22</v>
       </c>
       <c r="I33" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
+        <v>119</v>
+      </c>
+      <c r="H34" t="s">
+        <v>132</v>
+      </c>
+      <c r="I34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" t="s">
+        <v>253</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" t="s">
+        <v>254</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" t="s">
+        <v>255</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>119</v>
+      </c>
+      <c r="H41" t="s">
+        <v>147</v>
+      </c>
+      <c r="I41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" t="s">
+        <v>150</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>111</v>
+      </c>
+      <c r="I44" t="s">
+        <v>151</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46" t="s">
+        <v>124</v>
+      </c>
+      <c r="I46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>111</v>
+      </c>
+      <c r="I48" t="s">
+        <v>171</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>111</v>
+      </c>
+      <c r="I49" t="s">
+        <v>172</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51" t="s">
+        <v>125</v>
+      </c>
+      <c r="I51" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>111</v>
+      </c>
+      <c r="I53" t="s">
+        <v>174</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>111</v>
+      </c>
+      <c r="I54" t="s">
+        <v>175</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>119</v>
+      </c>
+      <c r="H56" t="s">
+        <v>126</v>
+      </c>
+      <c r="I56" t="s">
         <v>135</v>
       </c>
-      <c r="H34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>111</v>
+      </c>
+      <c r="I58" t="s">
+        <v>177</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>111</v>
+      </c>
+      <c r="I59" t="s">
+        <v>178</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>119</v>
+      </c>
+      <c r="H61" t="s">
+        <v>127</v>
+      </c>
+      <c r="I61" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>111</v>
+      </c>
+      <c r="I63" t="s">
+        <v>180</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>111</v>
+      </c>
+      <c r="I64" t="s">
+        <v>181</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>119</v>
+      </c>
+      <c r="H66" t="s">
+        <v>128</v>
+      </c>
+      <c r="I66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>111</v>
+      </c>
+      <c r="I68" t="s">
+        <v>183</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>111</v>
+      </c>
+      <c r="I69" t="s">
+        <v>184</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>119</v>
+      </c>
+      <c r="H71" t="s">
+        <v>129</v>
+      </c>
+      <c r="I71" t="s">
         <v>138</v>
       </c>
-      <c r="D35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G36" t="s">
-        <v>124</v>
-      </c>
-      <c r="I36" t="s">
-        <v>159</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G37" t="s">
-        <v>124</v>
-      </c>
-      <c r="I37" t="s">
-        <v>160</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+    </row>
+    <row r="72" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
+        <v>111</v>
+      </c>
+      <c r="I73" t="s">
+        <v>186</v>
+      </c>
+      <c r="J73" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>111</v>
+      </c>
+      <c r="I74" t="s">
+        <v>187</v>
+      </c>
+      <c r="J74" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>119</v>
+      </c>
+      <c r="H76" t="s">
+        <v>130</v>
+      </c>
+      <c r="I76" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H39" t="s">
-        <v>164</v>
-      </c>
-      <c r="I39" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G41" t="s">
-        <v>124</v>
-      </c>
-      <c r="I41" t="s">
-        <v>167</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G42" t="s">
-        <v>124</v>
-      </c>
-      <c r="I42" t="s">
-        <v>168</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G44" t="s">
-        <v>135</v>
-      </c>
-      <c r="H44" t="s">
+    <row r="77" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>111</v>
+      </c>
+      <c r="I78" t="s">
+        <v>189</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>111</v>
+      </c>
+      <c r="I79" t="s">
+        <v>190</v>
+      </c>
+      <c r="J79" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>119</v>
+      </c>
+      <c r="H81" t="s">
+        <v>131</v>
+      </c>
+      <c r="I81" t="s">
         <v>140</v>
       </c>
-      <c r="I44" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G46" t="s">
-        <v>124</v>
-      </c>
-      <c r="I46" t="s">
-        <v>188</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G47" t="s">
-        <v>124</v>
-      </c>
-      <c r="I47" t="s">
-        <v>189</v>
-      </c>
-      <c r="J47" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G49" t="s">
-        <v>135</v>
-      </c>
-      <c r="H49" t="s">
-        <v>141</v>
-      </c>
-      <c r="I49" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>138</v>
-      </c>
-      <c r="D50" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G51" t="s">
-        <v>124</v>
-      </c>
-      <c r="I51" t="s">
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" t="s">
         <v>191</v>
       </c>
-      <c r="J51" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G52" t="s">
-        <v>124</v>
-      </c>
-      <c r="I52" t="s">
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>111</v>
+      </c>
+      <c r="I83" t="s">
         <v>192</v>
       </c>
-      <c r="J52" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G54" t="s">
-        <v>135</v>
-      </c>
-      <c r="H54" t="s">
-        <v>142</v>
-      </c>
-      <c r="I54" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>138</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="J83" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>111</v>
+      </c>
+      <c r="I84" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G56" t="s">
-        <v>124</v>
-      </c>
-      <c r="I56" t="s">
-        <v>194</v>
-      </c>
-      <c r="J56" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G57" t="s">
-        <v>124</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="J84" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>119</v>
+      </c>
+      <c r="H86" t="s">
+        <v>240</v>
+      </c>
+      <c r="I86" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D87" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="I88" t="s">
+        <v>248</v>
+      </c>
+      <c r="J88" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
+        <v>111</v>
+      </c>
+      <c r="I89" t="s">
+        <v>243</v>
+      </c>
+      <c r="J89" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
+        <v>111</v>
+      </c>
+      <c r="I90" t="s">
+        <v>244</v>
+      </c>
+      <c r="J90" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>22</v>
+      </c>
+      <c r="I94" t="s">
         <v>195</v>
       </c>
-      <c r="J57" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G59" t="s">
-        <v>135</v>
-      </c>
-      <c r="H59" t="s">
-        <v>143</v>
-      </c>
-      <c r="I59" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>138</v>
-      </c>
-      <c r="D60" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G61" t="s">
-        <v>124</v>
-      </c>
-      <c r="I61" t="s">
-        <v>197</v>
-      </c>
-      <c r="J61" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G62" t="s">
-        <v>124</v>
-      </c>
-      <c r="I62" t="s">
-        <v>198</v>
-      </c>
-      <c r="J62" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G64" t="s">
-        <v>135</v>
-      </c>
-      <c r="H64" t="s">
-        <v>144</v>
-      </c>
-      <c r="I64" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>138</v>
-      </c>
-      <c r="D65" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G66" t="s">
-        <v>124</v>
-      </c>
-      <c r="I66" t="s">
-        <v>200</v>
-      </c>
-      <c r="J66" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G67" t="s">
-        <v>124</v>
-      </c>
-      <c r="I67" t="s">
-        <v>201</v>
-      </c>
-      <c r="J67" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G69" t="s">
-        <v>135</v>
-      </c>
-      <c r="H69" t="s">
-        <v>145</v>
-      </c>
-      <c r="I69" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>138</v>
-      </c>
-      <c r="D70" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G71" t="s">
-        <v>124</v>
-      </c>
-      <c r="I71" t="s">
-        <v>203</v>
-      </c>
-      <c r="J71" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G72" t="s">
-        <v>124</v>
-      </c>
-      <c r="I72" t="s">
-        <v>204</v>
-      </c>
-      <c r="J72" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G74" t="s">
-        <v>135</v>
-      </c>
-      <c r="H74" t="s">
-        <v>146</v>
-      </c>
-      <c r="I74" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>138</v>
-      </c>
-      <c r="D75" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G76" t="s">
-        <v>124</v>
-      </c>
-      <c r="I76" t="s">
-        <v>206</v>
-      </c>
-      <c r="J76" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G77" t="s">
-        <v>124</v>
-      </c>
-      <c r="I77" t="s">
-        <v>207</v>
-      </c>
-      <c r="J77" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G79" t="s">
-        <v>135</v>
-      </c>
-      <c r="H79" t="s">
-        <v>147</v>
-      </c>
-      <c r="I79" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>138</v>
-      </c>
-      <c r="D80" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="G81" t="s">
-        <v>124</v>
-      </c>
-      <c r="I81" t="s">
+      <c r="J94" s="13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G95" t="s">
+        <v>111</v>
+      </c>
+      <c r="I95" t="s">
+        <v>112</v>
+      </c>
+      <c r="J95" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="K95" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="3:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="7:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
+        <v>111</v>
+      </c>
+      <c r="I97" t="s">
+        <v>114</v>
+      </c>
+      <c r="J97" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="K97" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="7:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
+        <v>111</v>
+      </c>
+      <c r="I98" t="s">
+        <v>115</v>
+      </c>
+      <c r="J98" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="K98" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="J81" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="G82" t="s">
-        <v>124</v>
-      </c>
-      <c r="I82" t="s">
-        <v>210</v>
-      </c>
-      <c r="J82" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="86" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G86" t="s">
-        <v>22</v>
-      </c>
-      <c r="I86" t="s">
-        <v>212</v>
-      </c>
-      <c r="J86" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="87" spans="3:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G87" t="s">
-        <v>124</v>
-      </c>
-      <c r="I87" t="s">
-        <v>125</v>
-      </c>
-      <c r="J87" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="K87" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="88" spans="3:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="89" spans="3:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G89" t="s">
-        <v>124</v>
-      </c>
-      <c r="I89" t="s">
-        <v>128</v>
-      </c>
-      <c r="J89" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="K89" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G90" t="s">
-        <v>124</v>
-      </c>
-      <c r="I90" t="s">
-        <v>130</v>
-      </c>
-      <c r="J90" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="K90" s="13" t="s">
-        <v>228</v>
+      <c r="Q98">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2066,25 +2242,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>8</v>
@@ -2092,365 +2268,376 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
         <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
         <v>82</v>
       </c>
-      <c r="B23" t="s">
-        <v>89</v>
-      </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B30" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" t="s">
+        <v>241</v>
+      </c>
+      <c r="C39" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2460,10 +2647,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2474,7 +2661,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>10</v>
@@ -2482,18 +2669,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2502,82 +2689,90 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2602,10 +2797,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>21</v>
@@ -2613,25 +2808,25 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="B4" s="8">
         <v>20141006</v>
@@ -2640,11 +2835,11 @@
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="11" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
